--- a/src/model/spreadsheet/spreadsheetTemplate.xlsx
+++ b/src/model/spreadsheet/spreadsheetTemplate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usr\Documents\GitHub\Programmering2\src\gymnasieArbete\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usr\Documents\GitHub\GymnasieArbete\src\model\spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>DP2</t>
   </si>
@@ -72,6 +72,30 @@
   </si>
   <si>
     <t>15.0</t>
+  </si>
+  <si>
+    <t>Obj4</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>14.6</t>
+  </si>
+  <si>
+    <t>DP4</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>4.7</t>
+  </si>
+  <si>
+    <t>2.5</t>
   </si>
 </sst>
 </file>
@@ -87,12 +111,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -107,9 +143,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -390,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="H1" sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -401,96 +438,134 @@
     <col min="1" max="1" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="H1" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
+      <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G2">
+      <c r="B3" s="1">
+        <v>-20</v>
+      </c>
+      <c r="C3" s="1">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>-20</v>
+      </c>
+      <c r="C4" s="1">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2">
+        <v>-19</v>
+      </c>
+      <c r="F4" s="2">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2">
+        <v>5</v>
+      </c>
+      <c r="H4" s="2">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-20</v>
-      </c>
-      <c r="C3">
+      <c r="C5" s="1">
         <v>20</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>-20</v>
-      </c>
-      <c r="C4">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4">
-        <v>-19</v>
-      </c>
-      <c r="F4">
-        <v>10</v>
-      </c>
-      <c r="G4">
-        <v>5</v>
+      <c r="E5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="2">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
